--- a/会计/Manufacturing Account/Question 1.xlsx
+++ b/会计/Manufacturing Account/Question 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8186C8A-D242-B441-8928-B418313E8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BA7DE-FE27-8E4F-BC3F-9480BA9A79EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AB6227EA-F880-2A41-89C2-38A9DC2FA196}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Cost of Materials Consumed</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Cleaning Expenses (25,000 x 75%)</t>
   </si>
   <si>
-    <t>Water and Electricity [(31,500 - 2000) x 75%)</t>
-  </si>
-  <si>
     <t>Rent [(27,500 + 2,500) x 75%)</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>Production Cost of Finished Goods, at Market Price</t>
+  </si>
+  <si>
+    <t>Water and Electricity [(31,500 - 2,000) x 75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,14 +271,8 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" zoomScale="243" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,27 +612,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -731,7 +728,7 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -739,17 +736,17 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19">
+      <c r="C16" s="7">
         <f>150000*70%</f>
         <v>105000</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -762,7 +759,7 @@
       <c r="C18" s="8">
         <v>65000</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -770,8 +767,8 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="7">
-        <f>C14+D18</f>
-        <v>240400</v>
+        <f>C14+C16+C18</f>
+        <v>410400</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -794,7 +791,7 @@
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7">
         <f>(27500+2500)*75%</f>
@@ -804,7 +801,7 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7">
         <f>(31500 - 2000) * 75%</f>
@@ -843,7 +840,7 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7">
         <v>57800</v>
@@ -852,7 +849,7 @@
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="8">
         <f>150000 * 1/2</f>
@@ -868,12 +865,12 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7">
         <f>C19+C28</f>
-        <v>554575</v>
+        <v>724575</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8">
@@ -885,12 +882,12 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7">
         <f>C29+C30</f>
-        <v>582575</v>
+        <v>752575</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8">
@@ -899,27 +896,27 @@
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7">
         <f>C31+C32</f>
-        <v>545575</v>
+        <v>715575</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8">
         <f>C35-C33</f>
-        <v>404425</v>
+        <v>234425</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="10">
@@ -1081,7 +1078,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,41 +1090,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14">
@@ -1136,7 +1133,7 @@
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="16">
         <v>950000</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <f>B8+B9</f>
         <v>1010000</v>
       </c>
@@ -1181,14 +1178,14 @@
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14">
@@ -1198,7 +1195,7 @@
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="16">
@@ -1206,7 +1203,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="14">
         <f>C13+C14</f>
         <v>1266425</v>
